--- a/Docs/Catalogo Servicios.xlsx
+++ b/Docs/Catalogo Servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianSegura\source\repos\UAPA.FactConsultorio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3126B3C-FAB4-4172-8A1A-C265925EDED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E8528-C21E-4911-9962-D4C27E5ED44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A6CD03D9-DD21-464E-B6EE-BA2CB5B33B7B}"/>
   </bookViews>
@@ -670,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39427C21-399F-4E1C-8B66-5FEAA0EDA244}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F89" sqref="F2:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -711,8 +711,12 @@
       <c r="D2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"(1,GETDATE(),1,GETDATE(),'"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;"),"</f>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Hemograma',160),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -725,8 +729,12 @@
       <c r="D3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">"(1,GETDATE(),1,GETDATE(),'"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;"),"</f>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Falcemia',200),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -739,8 +747,12 @@
       <c r="D4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Eritosedimentacion',200),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -753,8 +765,12 @@
       <c r="D5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Tipificacion',200),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -767,8 +783,12 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Antigenos Febriles',0),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -781,8 +801,12 @@
       <c r="D7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','VDRL',200),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -795,8 +819,12 @@
       <c r="D8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','PCR',200),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -809,8 +837,12 @@
       <c r="D9">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Fiebre Reumatica',250),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -823,8 +855,12 @@
       <c r="D10">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','BHCG Cuantitativa',250),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -837,8 +873,12 @@
       <c r="D11">
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','HIV',350),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -851,8 +891,12 @@
       <c r="D12">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Orina',150),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -865,8 +909,12 @@
       <c r="D13">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Gravindex',300),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -879,8 +927,12 @@
       <c r="D14">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Coprologico',150),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -893,8 +945,12 @@
       <c r="D15">
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Toxoplasmosis IGG-IGM',700),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -907,8 +963,12 @@
       <c r="D16">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','A.S.O.',250),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -921,8 +981,12 @@
       <c r="D17">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Glicemia',180),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -935,8 +999,12 @@
       <c r="D18">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Colesterol Total',250),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -949,8 +1017,12 @@
       <c r="D19">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Trigliceridos',250),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -963,8 +1035,12 @@
       <c r="D20">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Acido Urico',250),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -977,8 +1053,12 @@
       <c r="D21">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Urea',200),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -991,8 +1071,12 @@
       <c r="D22">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Creatinina',250),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1005,8 +1089,12 @@
       <c r="D23">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Bilirrubinas  Total Y Directa',300),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1019,8 +1107,12 @@
       <c r="D24">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Amilasa',300),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1033,8 +1125,12 @@
       <c r="D25">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Proteinas Totales y Fraccionadas',250),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1047,8 +1143,12 @@
       <c r="D26">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Fosfatasa Alcalina',300),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -1061,8 +1161,12 @@
       <c r="D27">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','TGO',300),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -1075,8 +1179,12 @@
       <c r="D28">
         <v>300</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','TGP',300),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1089,8 +1197,12 @@
       <c r="D29">
         <v>250</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Tiempo de Coagulacion',250),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1103,8 +1215,12 @@
       <c r="D30">
         <v>250</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Tiempo de Sangria',250),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1117,8 +1233,12 @@
       <c r="D31">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Baciloscopia',300),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -1131,8 +1251,12 @@
       <c r="D32">
         <v>400</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Hepatitis  B',400),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>83</v>
       </c>
@@ -1145,8 +1269,12 @@
       <c r="D33">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Hepatitis  C',400),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -1159,8 +1287,12 @@
       <c r="D34">
         <v>250</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Colesterol HDL',250),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1173,8 +1305,12 @@
       <c r="D35">
         <v>250</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Colesterol LDL',250),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1187,8 +1323,12 @@
       <c r="D36">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Hepatitis Viral A',400),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1201,8 +1341,12 @@
       <c r="D37">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Investigacion Gota Gruesa',250),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -1215,8 +1359,12 @@
       <c r="D38">
         <v>750</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Analisis','Curva de Tolerancia a la Glucosa',750),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1229,8 +1377,12 @@
       <c r="D39">
         <v>1300</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Sonografia Abdominal',1300),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1243,8 +1395,12 @@
       <c r="D40">
         <v>1300</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Sonografia pelvica',1300),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1257,8 +1413,12 @@
       <c r="D41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Sonografia obstetrica',1000),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1271,8 +1431,12 @@
       <c r="D42">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Sonografia de mamas',1000),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1285,8 +1449,12 @@
       <c r="D43">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Electrocardiograma',1200),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -1299,8 +1467,12 @@
       <c r="D44">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Laboratorios','Ayudas Diagnosticas','Papanicolao',500),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1313,8 +1485,12 @@
       <c r="D45">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Medicina General ',300),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -1327,8 +1503,12 @@
       <c r="D46">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Cardiologia',300),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -1341,8 +1521,12 @@
       <c r="D47">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Endocrinologia',300),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1355,8 +1539,12 @@
       <c r="D48">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Gastroenterologia',300),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -1369,8 +1557,12 @@
       <c r="D49">
         <v>300</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Nutricion',300),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1383,8 +1575,12 @@
       <c r="D50">
         <v>300</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Pediatria',300),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1397,8 +1593,12 @@
       <c r="D51">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Ginecologia-Obtetricia',300),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1411,8 +1611,12 @@
       <c r="D52">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Otorinolaringologia',300),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1425,8 +1629,12 @@
       <c r="D53">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Psicologia',300),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1439,8 +1647,12 @@
       <c r="D54">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Medicina familiar Y Comunitaria',300),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1453,8 +1665,12 @@
       <c r="D55">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Dermatologia',300),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1467,8 +1683,12 @@
       <c r="D56">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Urologia',300),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1481,8 +1701,12 @@
       <c r="D57">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Consulta','Consulta','Psiquiatria',300),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -1495,8 +1719,12 @@
       <c r="D58">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Consulta de Emergencia',300),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -1509,8 +1737,12 @@
       <c r="D59">
         <v>300</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Consulta Profilactica',300),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -1523,8 +1755,12 @@
       <c r="D60">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Topificacion en Fluor en Gel',200),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -1537,8 +1773,12 @@
       <c r="D61">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Aplicacion de Resina Preventiva',200),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -1551,8 +1791,12 @@
       <c r="D62">
         <v>200</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Aplicacion de Sellantes de autocurado',200),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -1565,8 +1809,12 @@
       <c r="D63">
         <v>200</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Aplicacion de Sellantes de fotocurado',200),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -1579,8 +1827,12 @@
       <c r="D64">
         <v>900</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Remocion de cuerpo Extraño de tejido blando',900),</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -1593,8 +1845,12 @@
       <c r="D65">
         <v>1200</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Escision de lesion Odontogenica',1200),</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -1607,8 +1863,12 @@
       <c r="D66">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Escision de lesion de Encia',100),</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -1621,8 +1881,12 @@
       <c r="D67">
         <v>450</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F89" si="1">"(1,GETDATE(),1,GETDATE(),'"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;"),"</f>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia de diente permanente unirradicular',450),</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -1635,8 +1899,12 @@
       <c r="D68">
         <v>500</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia de diente permanente multirradicular',500),</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -1649,8 +1917,12 @@
       <c r="D69">
         <v>450</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia de diente temporal unirradicular',450),</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -1663,8 +1935,12 @@
       <c r="D70">
         <v>500</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia de diente temporal multirradicular',500),</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>85</v>
       </c>
@@ -1677,8 +1953,12 @@
       <c r="D71">
         <v>450</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia de dientes permanente',450),</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -1691,8 +1971,12 @@
       <c r="D72">
         <v>1950</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Exodoncia Quirurgica con alveoloplastia/cuadrante',1950),</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -1705,8 +1989,12 @@
       <c r="D73">
         <v>500</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Drenaje de coleccion periodontal (cerrado con alisado radicular)',500),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -1719,8 +2007,12 @@
       <c r="D74">
         <v>800</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','detartaje subgingival',800),</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -1733,8 +2025,12 @@
       <c r="D75">
         <v>550</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','detartajes supragingival',550),</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -1747,8 +2043,12 @@
       <c r="D76">
         <v>1200</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Gingivectomia',1200),</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -1761,8 +2061,12 @@
       <c r="D77">
         <v>900</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Alisado radicular campo cerrado',900),</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -1775,8 +2079,12 @@
       <c r="D78">
         <v>1800</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Curetaje a Campo Abierto',1800),</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1789,8 +2097,12 @@
       <c r="D79">
         <v>500</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Odontologia','Radiografias Periaplicales de Dientes superiores, inferiores',500),</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1803,8 +2115,12 @@
       <c r="D80">
         <v>800</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Toma de Biopsia',800),</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -1817,8 +2133,12 @@
       <c r="D81">
         <v>800</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Verruga Vulgar',800),</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -1831,8 +2151,12 @@
       <c r="D82">
         <v>500</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Acrocordon',500),</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -1845,8 +2169,12 @@
       <c r="D83">
         <v>800</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Granuloma Piogeno',800),</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -1859,8 +2187,12 @@
       <c r="D84">
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Moluscos Contagioso',1000),</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1873,8 +2205,12 @@
       <c r="D85">
         <v>1200</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Quiste Pilar',1200),</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1887,8 +2223,12 @@
       <c r="D86">
         <v>800</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Queratosis Seborreica',800),</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -1901,8 +2241,12 @@
       <c r="D87">
         <v>1500</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Dermatofibroma',1500),</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -1915,8 +2259,12 @@
       <c r="D88">
         <v>1200</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Quiste Triquilemal',1200),</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -1928,6 +2276,10 @@
       </c>
       <c r="D89">
         <v>2500</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>(1,GETDATE(),1,GETDATE(),'Especialidades Medicas','Dermatologia','Extirpacion  de Onicocriptosis',2500),</v>
       </c>
     </row>
   </sheetData>
